--- a/data/trans_orig/P1806_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A00E53-2402-48AB-8969-063157401CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{874B385F-05FE-435E-BE72-DB28F47FCE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC76BB1E-CF70-4837-BFFC-7C2331579CAE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{892EFC17-C500-4243-A395-53226A671B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,226 +74,226 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>95,68%</t>
+    <t>95,63%</t>
   </si>
   <si>
     <t>96,51%</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562520C4-5CA3-4573-9FCF-8D1D48A8516A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07072EF8-EDB3-459F-A051-22D4A384E2DB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>2789</v>
       </c>
       <c r="I8" s="7">
-        <v>2159374</v>
+        <v>2159373</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1104,7 +1104,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1348,7 +1348,7 @@
         <v>3273</v>
       </c>
       <c r="D14" s="7">
-        <v>3294349</v>
+        <v>3294348</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P1806_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{874B385F-05FE-435E-BE72-DB28F47FCE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5845A5CC-D503-4913-8DA7-A66D6308030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{892EFC17-C500-4243-A395-53226A671B4D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6A2BD75-C003-4978-9F5E-531A456257DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07072EF8-EDB3-459F-A051-22D4A384E2DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9478B840-A077-4347-A57B-2805F0487AB2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1806_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5845A5CC-D503-4913-8DA7-A66D6308030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A973EC3-BC53-475D-97D9-73881D27BA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6A2BD75-C003-4978-9F5E-531A456257DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6419CA8A-4568-4CAC-A984-75AF3BEE044E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,25 +74,25 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,43%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -104,19 +104,19 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>94,69%</t>
@@ -125,7 +125,7 @@
     <t>93,64%</t>
   </si>
   <si>
-    <t>95,59%</t>
+    <t>95,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>2,07%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,73 +194,73 @@
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>94,9%</t>
   </si>
   <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>3,88%</t>
@@ -269,31 +269,31 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>4,37%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>95,63%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>96,51%</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9478B840-A077-4347-A57B-2805F0487AB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062B8825-0440-4E4F-9E09-A77EBC4BBE53}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>2789</v>
       </c>
       <c r="I8" s="7">
-        <v>2159373</v>
+        <v>2159374</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1104,7 +1104,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1348,7 +1348,7 @@
         <v>3273</v>
       </c>
       <c r="D14" s="7">
-        <v>3294348</v>
+        <v>3294349</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P1806_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A973EC3-BC53-475D-97D9-73881D27BA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15829020-E29B-4B01-81A5-F159652030BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6419CA8A-4568-4CAC-A984-75AF3BEE044E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{68FFC2E6-1981-4E1D-81F9-AD9CBBC5C01E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,25 +77,25 @@
     <t>1,72%</t>
   </si>
   <si>
-    <t>4,48%</t>
+    <t>4,51%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>5,77%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>95,52%</t>
+    <t>95,49%</t>
   </si>
   <si>
     <t>98,28%</t>
@@ -116,16 +116,16 @@
     <t>91,44%</t>
   </si>
   <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062B8825-0440-4E4F-9E09-A77EBC4BBE53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA486F9-E50A-4F80-8461-B72080165F14}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>14522</v>
+        <v>13822</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>101</v>
       </c>
       <c r="I4" s="7">
-        <v>58567</v>
+        <v>52942</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>121</v>
       </c>
       <c r="N4" s="7">
-        <v>73089</v>
+        <v>66764</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>671</v>
       </c>
       <c r="D5" s="7">
-        <v>527112</v>
+        <v>501116</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>1325</v>
       </c>
       <c r="I5" s="7">
-        <v>776761</v>
+        <v>702000</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>1996</v>
       </c>
       <c r="N5" s="7">
-        <v>1303873</v>
+        <v>1203117</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>835328</v>
+        <v>754942</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>2117</v>
       </c>
       <c r="N6" s="7">
-        <v>1376962</v>
+        <v>1269881</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>44726</v>
+        <v>43167</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>131</v>
       </c>
       <c r="I7" s="7">
-        <v>89422</v>
+        <v>81982</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>176</v>
       </c>
       <c r="N7" s="7">
-        <v>134147</v>
+        <v>125149</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>1947</v>
       </c>
       <c r="D8" s="7">
-        <v>2117296</v>
+        <v>2247160</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>2789</v>
       </c>
       <c r="I8" s="7">
-        <v>2159374</v>
+        <v>2155163</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>4736</v>
       </c>
       <c r="N8" s="7">
-        <v>4276670</v>
+        <v>4402323</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>23098</v>
+        <v>22018</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>47698</v>
+        <v>43882</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>70796</v>
+        <v>65899</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>655</v>
       </c>
       <c r="D11" s="7">
-        <v>649941</v>
+        <v>624605</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>934</v>
       </c>
       <c r="I11" s="7">
-        <v>666188</v>
+        <v>616581</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>1589</v>
       </c>
       <c r="N11" s="7">
-        <v>1316130</v>
+        <v>1241187</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>91</v>
       </c>
       <c r="D13" s="7">
-        <v>82346</v>
+        <v>79007</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>302</v>
       </c>
       <c r="I13" s="7">
-        <v>195686</v>
+        <v>178806</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>393</v>
       </c>
       <c r="N13" s="7">
-        <v>278032</v>
+        <v>257813</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>3273</v>
       </c>
       <c r="D14" s="7">
-        <v>3294349</v>
+        <v>3372882</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>5048</v>
       </c>
       <c r="I14" s="7">
-        <v>3602324</v>
+        <v>3473744</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>8321</v>
       </c>
       <c r="N14" s="7">
-        <v>6896672</v>
+        <v>6846626</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5350</v>
       </c>
       <c r="I15" s="7">
-        <v>3798010</v>
+        <v>3652550</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8714</v>
       </c>
       <c r="N15" s="7">
-        <v>7174704</v>
+        <v>7104439</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
